--- a/Code/Experiment/Electrode Numberings.xlsx
+++ b/Code/Experiment/Electrode Numberings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Soft-Tactile-Sensing-For-Robotic-Manipulation\Code\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1FFBC8E-F5ED-4F10-80D5-AAB572109A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC902E2D-263C-4405-A87C-FA88032B201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{40794BF8-DE09-4C5E-9126-1D8AC12093E0}"/>
   </bookViews>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -163,7 +163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DABBD28-64EA-439A-86C2-E6C834804576}">
   <dimension ref="C1:AL46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="AG36" sqref="AG36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="62" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +580,7 @@
       <c r="S3" s="3">
         <v>30</v>
       </c>
-      <c r="T3" s="9"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="7"/>
@@ -633,94 +632,26 @@
       <c r="S4" s="6">
         <v>31</v>
       </c>
-      <c r="T4" s="9"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="9"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="9"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
       <c r="H9" s="1">
         <v>13</v>
       </c>
@@ -745,18 +676,10 @@
       <c r="O9" s="3">
         <v>18</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
       <c r="H10" s="7">
         <v>10</v>
       </c>
@@ -766,165 +689,85 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>21</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
       <c r="H11" s="7">
         <v>11</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
         <v>20</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
       <c r="H12" s="7">
         <v>8</v>
       </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
         <v>23</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
       <c r="H13" s="7">
         <v>9</v>
       </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
         <v>22</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
         <v>25</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="9"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
       <c r="H15" s="7">
         <v>7</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
         <v>24</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="9"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9">
+      <c r="N16" s="8"/>
+      <c r="O16" s="8">
         <v>27</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="9"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
       <c r="H17" s="7">
         <v>5</v>
       </c>
@@ -934,21 +777,13 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <v>26</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="9"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
       <c r="H18" s="4">
         <v>2</v>
       </c>
@@ -973,11 +808,7 @@
       <c r="O18" s="6">
         <v>29</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
@@ -1047,7 +878,9 @@
         <v>2</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2">
+        <v>6</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1056,15 +889,19 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="P30" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>26</v>
+      </c>
       <c r="R30" s="2">
         <v>28</v>
       </c>
       <c r="S30" s="3">
         <v>30</v>
       </c>
-      <c r="T30" s="9"/>
+      <c r="T30" s="8"/>
       <c r="U30" s="7"/>
       <c r="V30" s="1">
         <v>15</v>
@@ -1072,8 +909,12 @@
       <c r="W30" s="2">
         <v>13</v>
       </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="X30" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>9</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -1082,15 +923,19 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
+      <c r="AH30" s="2">
+        <v>23</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>21</v>
+      </c>
       <c r="AJ30" s="2">
         <v>19</v>
       </c>
       <c r="AK30" s="3">
         <v>17</v>
       </c>
-      <c r="AL30" s="9"/>
+      <c r="AL30" s="8"/>
     </row>
     <row r="31" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C31" s="7"/>
@@ -1100,8 +945,12 @@
       <c r="E31" s="5">
         <v>3</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="F31" s="5">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>7</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1110,15 +959,19 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="P31" s="5">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>27</v>
+      </c>
       <c r="R31" s="5">
         <v>29</v>
       </c>
       <c r="S31" s="6">
         <v>31</v>
       </c>
-      <c r="T31" s="9"/>
+      <c r="T31" s="8"/>
       <c r="U31" s="7"/>
       <c r="V31" s="4">
         <v>14</v>
@@ -1126,8 +979,12 @@
       <c r="W31" s="5">
         <v>12</v>
       </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
+      <c r="X31" s="5">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>8</v>
+      </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
@@ -1136,174 +993,46 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
+      <c r="AH31" s="5">
+        <v>22</v>
+      </c>
+      <c r="AI31" s="5">
+        <v>20</v>
+      </c>
       <c r="AJ31" s="5">
         <v>18</v>
       </c>
       <c r="AK31" s="6">
         <v>16</v>
       </c>
-      <c r="AL31" s="9"/>
+      <c r="AL31" s="8"/>
     </row>
     <row r="32" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="9"/>
+      <c r="T32" s="8"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="9"/>
+      <c r="AL32" s="8"/>
     </row>
     <row r="33" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="9"/>
+      <c r="T33" s="8"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="9"/>
+      <c r="AL33" s="8"/>
     </row>
     <row r="34" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="9"/>
+      <c r="T34" s="8"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
-      <c r="AI34" s="8"/>
-      <c r="AJ34" s="8"/>
-      <c r="AK34" s="8"/>
-      <c r="AL34" s="9"/>
+      <c r="AL34" s="8"/>
     </row>
     <row r="35" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="9"/>
+      <c r="T35" s="8"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="8"/>
-      <c r="AD35" s="8"/>
-      <c r="AE35" s="8"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="8"/>
-      <c r="AJ35" s="8"/>
-      <c r="AK35" s="8"/>
-      <c r="AL35" s="9"/>
+      <c r="AL35" s="8"/>
     </row>
     <row r="36" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1312,16 +1041,8 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="9"/>
+      <c r="T36" s="8"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
@@ -1330,18 +1051,10 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="3"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="8"/>
-      <c r="AJ36" s="8"/>
-      <c r="AK36" s="8"/>
-      <c r="AL36" s="9"/>
+      <c r="AL36" s="8"/>
     </row>
     <row r="37" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
       <c r="H37" s="7"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
@@ -1349,17 +1062,9 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="9"/>
+      <c r="O37" s="8"/>
+      <c r="T37" s="8"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="2"/>
@@ -1367,247 +1072,95 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="3"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="8"/>
-      <c r="AI37" s="8"/>
-      <c r="AJ37" s="8"/>
-      <c r="AK37" s="8"/>
-      <c r="AL37" s="9"/>
+      <c r="AG37" s="8"/>
+      <c r="AL37" s="8"/>
     </row>
     <row r="38" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="9"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="T38" s="8"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="8"/>
-      <c r="AD38" s="8"/>
-      <c r="AE38" s="8"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="8"/>
-      <c r="AI38" s="8"/>
-      <c r="AJ38" s="8"/>
-      <c r="AK38" s="8"/>
-      <c r="AL38" s="9"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AL38" s="8"/>
     </row>
     <row r="39" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="9"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="T39" s="8"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="8"/>
-      <c r="AD39" s="8"/>
-      <c r="AE39" s="8"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="8"/>
-      <c r="AJ39" s="8"/>
-      <c r="AK39" s="8"/>
-      <c r="AL39" s="9"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AL39" s="8"/>
     </row>
     <row r="40" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="9"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="T40" s="8"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="9"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AL40" s="8"/>
     </row>
     <row r="41" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="9"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="T41" s="8"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="8"/>
-      <c r="AE41" s="8"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="8"/>
-      <c r="AL41" s="9"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AL41" s="8"/>
     </row>
     <row r="42" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="T42" s="8"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="8"/>
-      <c r="AD42" s="8"/>
-      <c r="AE42" s="8"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="8"/>
-      <c r="AI42" s="8"/>
-      <c r="AJ42" s="8"/>
-      <c r="AK42" s="8"/>
-      <c r="AL42" s="9"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AL42" s="8"/>
     </row>
     <row r="43" spans="3:38" x14ac:dyDescent="0.35">
       <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="9"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="T43" s="8"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="8"/>
-      <c r="Y43" s="8"/>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="8"/>
-      <c r="AD43" s="8"/>
-      <c r="AE43" s="8"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="8"/>
-      <c r="AI43" s="8"/>
-      <c r="AJ43" s="8"/>
-      <c r="AK43" s="8"/>
-      <c r="AL43" s="9"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AL43" s="8"/>
     </row>
     <row r="44" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
       <c r="H44" s="7"/>
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
@@ -1615,17 +1168,9 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="9"/>
+      <c r="O44" s="8"/>
+      <c r="T44" s="8"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
       <c r="Z44" s="7"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="5"/>
@@ -1633,19 +1178,11 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="6"/>
-      <c r="AG44" s="9"/>
-      <c r="AH44" s="8"/>
-      <c r="AI44" s="8"/>
-      <c r="AJ44" s="8"/>
-      <c r="AK44" s="8"/>
-      <c r="AL44" s="9"/>
+      <c r="AG44" s="8"/>
+      <c r="AL44" s="8"/>
     </row>
     <row r="45" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
       <c r="H45" s="4">
         <v>2</v>
       </c>
@@ -1670,16 +1207,8 @@
       <c r="O45" s="6">
         <v>29</v>
       </c>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="9"/>
+      <c r="T45" s="8"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="8"/>
       <c r="Z45" s="4">
         <v>13</v>
       </c>
@@ -1704,11 +1233,7 @@
       <c r="AG45" s="6">
         <v>18</v>
       </c>
-      <c r="AH45" s="8"/>
-      <c r="AI45" s="8"/>
-      <c r="AJ45" s="8"/>
-      <c r="AK45" s="8"/>
-      <c r="AL45" s="9"/>
+      <c r="AL45" s="8"/>
     </row>
     <row r="46" spans="3:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C46" s="4"/>
